--- a/data/STONKS V2.5Beta.xlsx
+++ b/data/STONKS V2.5Beta.xlsx
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1612</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>988</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>575</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>267</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1288</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="39">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F40" s="1" t="n"/>
     </row>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>443</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>209</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>298</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>315</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>177</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>221</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>1022</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="63">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>259</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>914</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="65">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>18780</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="68">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1182</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="70">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>579</v>
+        <v>786</v>
       </c>
     </row>
     <row r="72">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>1360</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="74">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="75">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>781</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="76">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C82" s="3" t="n">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>1166</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="84">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1690</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="87">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1384</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="88">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>592</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>3905</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="91">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2339</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="92">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>246</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C94" s="3" t="n">
-        <v>666</v>
+        <v>995</v>
       </c>
     </row>
     <row r="95">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>1192</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="96">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>1468</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="97">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>2384</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="98">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>1096</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="99">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1990</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="102">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C102" s="5" t="n">
-        <v>1344</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="103">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1860</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="104">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>1085</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="105">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>1570</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="106">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C106" s="3" t="n">
-        <v>622</v>
+        <v>825</v>
       </c>
     </row>
     <row r="107">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>1268</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="108">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C108" s="3" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>690</v>
+        <v>889</v>
       </c>
     </row>
     <row r="110">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>769</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>1133</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="113">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>2179</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="114">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C114" s="3" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>602</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C116" s="3" t="n">
-        <v>591</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>1095</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="118">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C118" s="3" t="n">
-        <v>1420</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="119">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>1362</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="120">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C120" s="3" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C122" s="3" t="n">
-        <v>1169</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="123">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>838</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="125">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" s="3" t="n">
-        <v>636</v>
+        <v>871</v>
       </c>
     </row>
     <row r="126">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C126" s="3" t="n">
-        <v>1175</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="127">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>615</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="128">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>1229</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="129">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="C129" s="3" t="n">
-        <v>535</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>1153</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="132">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>3359</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="133">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="C133" s="3" t="n">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>8901</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="135">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C135" s="3" t="n">
-        <v>1185</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="136">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>230</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>970</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="138">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="C140" s="3" t="n">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C141" s="3" t="n">
-        <v>370</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="C143" s="5" t="n">
-        <v>2260</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="144">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>349</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>6400</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="147">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C148" s="3" t="n">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C149" s="3" t="n">
-        <v>1319</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="150">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>1129</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="154">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>1030</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="155">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="C156" s="3" t="n">
-        <v>968</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="157">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C157" s="3" t="n">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="C158" s="3" t="n">
-        <v>1098</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="159">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C159" s="3" t="n">
-        <v>991</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="160">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>905</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="161">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C163" s="3" t="n">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="C164" s="3" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C165" s="3" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="C168" s="3" t="n">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="171">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C172" s="3" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>222</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>250</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C175" s="3" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>401</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>738</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="179">
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>603</v>
+        <v>818</v>
       </c>
     </row>
     <row r="180">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="C180" s="3" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="C181" s="3" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>269</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="C183" s="3" t="n">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C184" s="3" t="n">
-        <v>640</v>
+        <v>795</v>
       </c>
     </row>
     <row r="185">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="C185" s="3" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>432</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C187" s="3" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>1024</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="189">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C189" s="3" t="n">
-        <v>567</v>
+        <v>748</v>
       </c>
     </row>
     <row r="190">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>1539</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="191">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C193" s="3" t="n">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="C195" s="3" t="n">
-        <v>526</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196">
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>610</v>
+        <v>775</v>
       </c>
     </row>
     <row r="198">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="C199" s="3" t="n">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>291</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C203" s="3" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="204">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="205">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C205" s="7" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="206">

--- a/data/STONKS V2.5Beta.xlsx
+++ b/data/STONKS V2.5Beta.xlsx
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2354</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1201</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="7">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="39">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F40" s="1" t="n"/>
     </row>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>1240</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="63">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>1035</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>19600</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="68">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1484</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="70">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>786</v>
+        <v>897</v>
       </c>
     </row>
     <row r="72">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>2116</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="74">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>1091</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="76">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="79">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C82" s="3" t="n">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>1426</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="84">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1935</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="87">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1860</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="88">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>725</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>4800</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="91">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2975</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="92">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C94" s="3" t="n">
-        <v>995</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="95">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>1332</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="96">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>2552</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="97">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>2275</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="98">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="99">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>2495</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="102">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C102" s="5" t="n">
-        <v>1620</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="103">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>2579</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="104">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>1434</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="105">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>1601</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="106">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C106" s="3" t="n">
-        <v>825</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>1730</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="108">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C108" s="3" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>889</v>
+        <v>931</v>
       </c>
     </row>
     <row r="110">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>925</v>
+        <v>994</v>
       </c>
     </row>
     <row r="111">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>1264</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="113">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>3405</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="114">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C114" s="3" t="n">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>781</v>
+        <v>838</v>
       </c>
     </row>
     <row r="116">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C116" s="3" t="n">
-        <v>800</v>
+        <v>946</v>
       </c>
     </row>
     <row r="117">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>1449</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="118">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C118" s="3" t="n">
-        <v>1910</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="119">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>1480</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="120">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C120" s="3" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="121">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C122" s="3" t="n">
-        <v>1527</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="123">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>1094</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="125">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" s="3" t="n">
-        <v>871</v>
+        <v>935</v>
       </c>
     </row>
     <row r="126">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C126" s="3" t="n">
-        <v>2178</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="127">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="128">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>1510</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="129">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="C129" s="3" t="n">
-        <v>585</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>1620</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="132">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>4195</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="133">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="C133" s="3" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>9100</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="135">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C135" s="3" t="n">
-        <v>1139</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="136">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>328</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>1256</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="138">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="C140" s="3" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C141" s="3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="C143" s="5" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="144">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>8100</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="147">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C148" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C149" s="3" t="n">
-        <v>1750</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="150">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>229</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>1466</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="154">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>1480</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="155">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="C156" s="3" t="n">
-        <v>1305</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="157">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C157" s="3" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="C158" s="3" t="n">
-        <v>1379</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="159">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C159" s="3" t="n">
-        <v>1184</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="160">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>1528</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="161">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C163" s="3" t="n">
-        <v>287</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="C164" s="3" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C165" s="3" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="C168" s="3" t="n">
-        <v>253</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C172" s="3" t="n">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C175" s="3" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>1575</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="179">
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>818</v>
+        <v>988</v>
       </c>
     </row>
     <row r="180">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="C180" s="3" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="C181" s="3" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>327</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="C183" s="3" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C184" s="3" t="n">
-        <v>795</v>
+        <v>815</v>
       </c>
     </row>
     <row r="185">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="C185" s="3" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C187" s="3" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>1280</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="189">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C189" s="3" t="n">
-        <v>748</v>
+        <v>785</v>
       </c>
     </row>
     <row r="190">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>1606</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="191">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C193" s="3" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="C195" s="3" t="n">
-        <v>674</v>
+        <v>727</v>
       </c>
     </row>
     <row r="196">
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="198">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="C199" s="3" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C203" s="3" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C205" s="7" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="206">

--- a/data/STONKS V2.5Beta.xlsx
+++ b/data/STONKS V2.5Beta.xlsx
@@ -9,7 +9,7 @@
     <sheet name="STONKS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -203,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:C205" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C205"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:C207" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C207"/>
   <tableColumns count="3">
     <tableColumn id="1" name="COMPANY"/>
     <tableColumn id="2" name="SYMBOL"/>
@@ -481,10 +481,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2847</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1453</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>627</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1451</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="39">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F40" s="1" t="n"/>
     </row>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>390</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>400</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>439</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>1417</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="63">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>1166</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="65">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>20022</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="68">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1655</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="70">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>530</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>897</v>
+        <v>821</v>
       </c>
     </row>
     <row r="72">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>2558</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="74">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>874</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>1197</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="76">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>776</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>1606</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="84">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="C86" s="4" t="n">
-        <v>2152</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="87">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C87" s="4" t="n">
-        <v>2117</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="88">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>867</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>4814</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="91">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>3239</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="92">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C94" s="3" t="n">
-        <v>1033</v>
+        <v>993</v>
       </c>
     </row>
     <row r="95">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>1495</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="96">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>3055</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="97">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>2312</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="98">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>1114</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="99">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>2530</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="102">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C102" s="5" t="n">
-        <v>1805</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="103">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>2729</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="104">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>1615</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="105">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>1645</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="106">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C106" s="3" t="n">
-        <v>858</v>
+        <v>825</v>
       </c>
     </row>
     <row r="107">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>1996</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="108">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C108" s="3" t="n">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>931</v>
+        <v>881</v>
       </c>
     </row>
     <row r="110">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>994</v>
+        <v>916</v>
       </c>
     </row>
     <row r="111">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>1349</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="113">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>4107</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="114">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C114" s="3" t="n">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>838</v>
+        <v>780</v>
       </c>
     </row>
     <row r="116">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C116" s="3" t="n">
-        <v>946</v>
+        <v>853</v>
       </c>
     </row>
     <row r="117">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>1612</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="118">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C118" s="3" t="n">
-        <v>2200</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="119">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="120">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C120" s="3" t="n">
-        <v>760</v>
+        <v>713</v>
       </c>
     </row>
     <row r="121">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C122" s="3" t="n">
-        <v>1605</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="123">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>1252</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="125">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" s="3" t="n">
-        <v>935</v>
+        <v>866</v>
       </c>
     </row>
     <row r="126">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C126" s="3" t="n">
-        <v>2634</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="127">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>1165</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="128">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="129">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="C129" s="3" t="n">
-        <v>621</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>1815</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="132">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="133">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="C133" s="3" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>9600</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="135">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C135" s="3" t="n">
-        <v>1232</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="136">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>1350</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="138">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="C140" s="3" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C141" s="3" t="n">
-        <v>436</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="C143" s="5" t="n">
-        <v>3300</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="144">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>8712</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="147">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C148" s="3" t="n">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C149" s="3" t="n">
-        <v>2117</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="150">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>1657</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="154">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>1537</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="155">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C157" s="3" t="n">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="C158" s="3" t="n">
-        <v>1497</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="159">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C159" s="3" t="n">
-        <v>1336</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="160">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>1648</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="161">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C163" s="3" t="n">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="C164" s="3" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C165" s="3" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="C168" s="3" t="n">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C172" s="3" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C175" s="3" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>1762</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="179">
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="180">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="C180" s="3" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="C181" s="3" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="C183" s="3" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C184" s="3" t="n">
-        <v>815</v>
+        <v>764</v>
       </c>
     </row>
     <row r="185">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="C185" s="3" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C187" s="3" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>1360</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="189">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C189" s="3" t="n">
-        <v>785</v>
+        <v>740</v>
       </c>
     </row>
     <row r="190">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>1600</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="191">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C193" s="3" t="n">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="C195" s="3" t="n">
-        <v>727</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196">
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>773</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="C199" s="3" t="n">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203">
@@ -3555,26 +3555,56 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>Chandragiri Hills Limited</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>CGH</t>
+        </is>
+      </c>
+      <c r="C205" s="7" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Nepal Infrastructure Bank Limited</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NIFRA</t>
+        </is>
+      </c>
+      <c r="C206" s="7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>Khanikhola Hydropower Co. Ltd.</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>KKHC</t>
         </is>
       </c>
-      <c r="C205" s="7" t="n">
+      <c r="C207" s="7" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="206">
-      <c r="C206" s="6" t="n"/>
+    <row r="208">
+      <c r="C208" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
